--- a/justifications_X0Filters.xlsx
+++ b/justifications_X0Filters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/KneppModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C9F8C-03FB-8B4A-BFD4-0ABEA5B5F8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A11E48-A150-394B-851C-95EA4F5E8498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24600" windowHeight="14980" activeTab="1" xr2:uid="{58677E38-1F61-6D41-B419-F7A8609B303E}"/>
+    <workbookView xWindow="12080" yWindow="460" windowWidth="16480" windowHeight="14980" xr2:uid="{58677E38-1F61-6D41-B419-F7A8609B303E}"/>
   </bookViews>
   <sheets>
     <sheet name="nodesData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
   <si>
     <t>Initial conditions: Pre reintroductions (2000-2009)</t>
   </si>
@@ -145,12 +145,6 @@
     <t>5 to 7kg</t>
   </si>
   <si>
-    <t>1.12 to 97.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available from Knepp. A 2004 study estimates 0.21-2.23 foxes/sq km (247 acres) in Britain; another estimated 0.001-13.9 foxes per km2 (Porteus et al. 2019), where 13.9 was the highest density ever recorded in Bristol. The 0.001-13.9 range was used. </t>
-  </si>
-  <si>
     <t>1.12 to 97.53 in 2009 and 2018</t>
   </si>
   <si>
@@ -178,13 +172,7 @@
     <t>reptilesAmphibians</t>
   </si>
   <si>
-    <t>63 to 1000</t>
-  </si>
-  <si>
     <t>0.022 to 0.18kg</t>
-  </si>
-  <si>
-    <t>0.311 to 40.4</t>
   </si>
   <si>
     <t>Songbirds</t>
@@ -405,6 +393,84 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>roeDeer</t>
+  </si>
+  <si>
+    <t>tamworthPig</t>
+  </si>
+  <si>
+    <t>beaver</t>
+  </si>
+  <si>
+    <t>rabbits</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>songbirdsWaterfowl</t>
+  </si>
+  <si>
+    <t>raptors</t>
+  </si>
+  <si>
+    <t>arableGrass</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>thornyScrub</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>7-18%</t>
+  </si>
+  <si>
+    <t>70-90%</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>55-60%</t>
+  </si>
+  <si>
+    <t>17% +-5</t>
+  </si>
+  <si>
+    <t>1-20%</t>
+  </si>
+  <si>
+    <t>20-35%</t>
+  </si>
+  <si>
+    <t>No data available from Knepp. A 2004 study estimates 0.21-2.23 foxes/sq km (247 acres) in Britain; another estimated 0.001-13.9 foxes per km2 (Porteus et al. 2019), where 13.9 was the highest density ever recorded in Bristol. The 0.21-2.23 was used.</t>
+  </si>
+  <si>
+    <t>4.7 to 69.5</t>
+  </si>
+  <si>
+    <t>Minimum 113 songbirds/waterfowl counted in 2005</t>
+  </si>
+  <si>
+    <t>Minimum 182 counted in 2009</t>
+  </si>
+  <si>
+    <t>144 counted  in 2016; need updated data</t>
+  </si>
+  <si>
+    <t>63 amphibs + 13 reptiles counted in 2005</t>
+  </si>
+  <si>
+    <t>70 to 1000</t>
+  </si>
+  <si>
+    <t>0.34 to 40.4</t>
   </si>
 </sst>
 </file>
@@ -474,14 +540,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,6 +623,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -586,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -974,11 +1038,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -996,37 +1134,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,49 +1176,49 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1119,15 +1254,54 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,10 +1616,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C24BD0C-F41A-1E42-B286-835ABABF2481}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1454,110 +1630,118 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="32.5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="28.1640625" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" thickBot="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:14" ht="20" thickBot="1">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-    </row>
-    <row r="2" spans="1:12" s="82" customFormat="1" ht="17" thickBot="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="81" customFormat="1" ht="17" thickBot="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="I2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="J2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="K2" s="112"/>
+      <c r="L2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="M2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="135">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:14" ht="135">
+      <c r="A3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="82">
         <v>0</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="113"/>
+      <c r="L3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="M3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="42"/>
-    </row>
-    <row r="4" spans="1:12" ht="75">
-      <c r="A4" s="96" t="s">
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" ht="75">
+      <c r="A4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1572,28 +1756,30 @@
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="K4" s="114"/>
+      <c r="L4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="M4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" ht="135">
-      <c r="A5" s="96" t="s">
+      <c r="N4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" ht="135">
+      <c r="A5" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="86">
         <v>0</v>
       </c>
       <c r="C5" s="15"/>
@@ -1604,28 +1790,30 @@
         <v>9</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="K5" s="115"/>
+      <c r="L5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="M5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="96" t="s">
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="86">
         <v>0</v>
       </c>
       <c r="C6" s="15"/>
@@ -1638,94 +1826,105 @@
       <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="106"/>
+      <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="M6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="90">
-      <c r="A7" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>31</v>
+    <row r="7" spans="1:14" ht="75">
+      <c r="A7" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="105"/>
+      <c r="H7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="44" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12" ht="75">
-      <c r="A8" s="96" t="s">
-        <v>36</v>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" ht="90">
+      <c r="A8" s="95" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="105">
+        <f>2.23*7*4.45</f>
+        <v>69.464500000000001</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="115"/>
+      <c r="L8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="96" t="s">
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1737,296 +1936,577 @@
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="44" t="s">
+      <c r="J9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="115"/>
+      <c r="L9" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="87" t="s">
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="95" t="s">
         <v>46</v>
       </c>
+      <c r="B10" s="86" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="106"/>
+      <c r="H10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="44" t="s">
+      <c r="J10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="115"/>
+      <c r="L10" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>51</v>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>118</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="106"/>
+      <c r="H11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" ht="30">
+      <c r="A12" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14" ht="30">
+      <c r="A13" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="96" t="s">
+      <c r="D13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="49" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="96" t="s">
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="K13" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="M13" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:14" ht="30">
+      <c r="A14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="37" t="s">
+      <c r="B14" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="38" t="s">
+      <c r="C14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="E14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="96" t="s">
+      <c r="I14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="K14" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="M14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1">
+      <c r="A15" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="37" t="s">
+      <c r="B15" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="38" t="s">
+      <c r="C15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="E15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="1:12" ht="17" thickBot="1">
-      <c r="A15" s="97" t="s">
+      <c r="I15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="K15" s="117"/>
+      <c r="L15" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="M15" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="52"/>
+    </row>
+    <row r="16" spans="1:14" s="25" customFormat="1">
+      <c r="A16" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="17" t="s">
+      <c r="B16" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="39" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="55"/>
+    </row>
+    <row r="17" spans="1:15" s="25" customFormat="1">
+      <c r="A17" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="1:12" s="24" customFormat="1">
-      <c r="A16" s="98" t="s">
+      <c r="B17" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="58"/>
+    </row>
+    <row r="18" spans="1:15" s="25" customFormat="1" ht="17" thickBot="1">
+      <c r="A18" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
+      <c r="B18" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:12" s="24" customFormat="1">
-      <c r="A17" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="59"/>
-    </row>
-    <row r="18" spans="1:12" s="24" customFormat="1" ht="17" thickBot="1">
-      <c r="A18" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="62"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="61"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.94</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.38</v>
+      </c>
+      <c r="F21">
+        <v>0.49</v>
+      </c>
+      <c r="H21">
+        <v>1E-3</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="L21">
+        <v>1.7</v>
+      </c>
+      <c r="M21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N21">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="O21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <f>A21*200</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:F22" si="0">B21*200</f>
+        <v>188</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H22">
+        <f>H21*200</f>
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <f>I21*200</f>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="1">J21*200</f>
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="2">L21*200</f>
+        <v>340</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22" si="3">M21*200</f>
+        <v>113.99999999999999</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22" si="4">N21*200</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="5">O21*200</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="101">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.69</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F24">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.87</v>
+      </c>
+      <c r="J24">
+        <f>4.45*0.18</f>
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="L24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="101">
+        <f>A24*200</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="101">
+        <f t="shared" ref="B25:D25" si="6">B24*200</f>
+        <v>138</v>
+      </c>
+      <c r="C25" s="101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="101">
+        <f t="shared" ref="E25" si="7">E24*200</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="F25" s="101">
+        <f t="shared" ref="F25" si="8">F24*200</f>
+        <v>490.00000000000006</v>
+      </c>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="101">
+        <f t="shared" ref="I25" si="9">I24*200</f>
+        <v>174</v>
+      </c>
+      <c r="J25" s="101">
+        <f t="shared" ref="J25" si="10">J24*200</f>
+        <v>160.20000000000002</v>
+      </c>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101">
+        <f t="shared" ref="L25" si="11">L24*200</f>
+        <v>2.6</v>
+      </c>
+      <c r="M25" s="101">
+        <f t="shared" ref="M25:N25" si="12">M24*200</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="N25" s="101">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="101"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <f>(156+98)/2</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28">
+        <f>(2.7+452)/2</f>
+        <v>227.35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2036,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1A67B6-A1A1-6349-BAEA-8C84F7A25D0A}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2046,8 +2526,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="63" t="s">
-        <v>91</v>
+      <c r="A1" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="B1">
         <v>2008</v>
@@ -2079,7 +2559,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -2108,7 +2588,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2137,7 +2617,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>77</v>
@@ -2166,7 +2646,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -2195,7 +2675,7 @@
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -2223,39 +2703,39 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1">
-      <c r="A7" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65">
+      <c r="A7" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64">
         <f>SUM(C2:C5)</f>
         <v>118</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <f t="shared" ref="D7:I7" si="0">SUM(D2:D5)</f>
         <v>186</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="64">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="64">
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="64">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="64">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="64">
         <f>SUM(J2:J5)</f>
         <v>283</v>
       </c>

--- a/justifications_X0Filters.xlsx
+++ b/justifications_X0Filters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/KneppModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A11E48-A150-394B-851C-95EA4F5E8498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8873BEC-14EE-664A-B7A8-88AF65D2C191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="460" windowWidth="16480" windowHeight="14980" xr2:uid="{58677E38-1F61-6D41-B419-F7A8609B303E}"/>
+    <workbookView xWindow="4180" yWindow="460" windowWidth="21420" windowHeight="14980" xr2:uid="{58677E38-1F61-6D41-B419-F7A8609B303E}"/>
   </bookViews>
   <sheets>
     <sheet name="nodesData" sheetId="1" r:id="rId1"/>
-    <sheet name="herbivoreNumbers" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="herbivoreNumbers" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
   <si>
     <t>Initial conditions: Pre reintroductions (2000-2009)</t>
   </si>
@@ -157,18 +158,12 @@
     <t>Rabbits</t>
   </si>
   <si>
-    <t>10 to 168,000</t>
-  </si>
-  <si>
     <t>1.2 to 2kg</t>
   </si>
   <si>
     <t>2.7 to 452</t>
   </si>
   <si>
-    <t xml:space="preserve">There are an estimated 36mil rabbits in the UK (Harris et al. 1995; Natural England, 2018). They can weigh 1.2-2kg (Wildlife Trusts, 2020). Extrapolated to  ~152 per acre, giving about 10-168k. </t>
-  </si>
-  <si>
     <t>reptilesAmphibians</t>
   </si>
   <si>
@@ -191,9 +186,6 @@
   </si>
   <si>
     <t>Raptors</t>
-  </si>
-  <si>
-    <t>1 to 25</t>
   </si>
   <si>
     <t>0.5 to 1.5kg</t>
@@ -471,6 +463,27 @@
   </si>
   <si>
     <t>0.34 to 40.4</t>
+  </si>
+  <si>
+    <t>Valuation 1</t>
+  </si>
+  <si>
+    <t>Valuation 2</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>1 to 5</t>
+  </si>
+  <si>
+    <t>There are an estimated 36mil rabbits in the UK (Harris et al. 1995; Natural England, 2018). They can weigh 1.2-2kg (Wildlife Trusts, 2020). Extrapolated to  ~148/km2 or 660 total. Multiplied this by 2</t>
+  </si>
+  <si>
+    <t>1 to 1320</t>
   </si>
 </sst>
 </file>
@@ -1616,12 +1629,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C24BD0C-F41A-1E42-B286-835ABABF2481}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+      <selection pane="topRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1654,13 +1667,13 @@
       <c r="F1" s="67"/>
       <c r="G1" s="102"/>
       <c r="H1" s="68" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I1" s="69"/>
       <c r="J1" s="70"/>
       <c r="K1" s="111"/>
       <c r="L1" s="71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M1" s="72"/>
       <c r="N1" s="72"/>
@@ -1850,23 +1863,23 @@
         <v>34</v>
       </c>
       <c r="B7" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="G7" s="105"/>
       <c r="H7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>9</v>
@@ -1890,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G8" s="105">
         <f>2.23*7*4.45</f>
@@ -1922,36 +1935,36 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="D9" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G9" s="106"/>
       <c r="H9" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K9" s="115"/>
       <c r="L9" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M9" s="43" t="s">
         <v>9</v>
@@ -1960,16 +1973,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
@@ -1977,7 +1990,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="106"/>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>9</v>
@@ -1987,7 +2000,7 @@
       </c>
       <c r="K10" s="115"/>
       <c r="L10" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>9</v>
@@ -1996,26 +2009,26 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G11" s="106"/>
       <c r="H11" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>9</v>
@@ -2030,275 +2043,285 @@
     </row>
     <row r="12" spans="1:14" ht="30">
       <c r="A12" s="95" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="106" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H12" s="100" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>59</v>
-      </c>
       <c r="M12" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" ht="30">
       <c r="A13" s="95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H13" s="100" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13" s="115" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14" ht="30">
       <c r="A14" s="95" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="106" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14" s="116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" ht="17" thickBot="1">
       <c r="A15" s="96" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="107"/>
       <c r="H15" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K15" s="117"/>
       <c r="L15" s="50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N15" s="52"/>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1">
       <c r="A16" s="97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="108"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="118"/>
       <c r="L16" s="53"/>
       <c r="M16" s="54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:15" s="25" customFormat="1">
       <c r="A17" s="98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="109"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="119"/>
       <c r="L17" s="56"/>
       <c r="M17" s="57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:15" s="25" customFormat="1" ht="17" thickBot="1">
       <c r="A18" s="99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="110"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="120"/>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N18" s="61"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19">
+        <f>36000000/242495</f>
+        <v>148.45666920967443</v>
+      </c>
+      <c r="C19">
+        <f>B19*4.45</f>
+        <v>660.63217798305129</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>96</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>97</v>
       </c>
-      <c r="F20" t="s">
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
         <v>99</v>
       </c>
-      <c r="I20" t="s">
+      <c r="N20" t="s">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>101</v>
-      </c>
-      <c r="M20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2306,7 +2329,8 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0.94</v>
+        <f>1.5*5/4.45</f>
+        <v>1.6853932584269662</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2349,7 +2373,7 @@
       </c>
       <c r="B22">
         <f t="shared" ref="B22:F22" si="0">B21*200</f>
-        <v>188</v>
+        <v>337.07865168539325</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2462,7 +2486,7 @@
       </c>
       <c r="G25" s="101"/>
       <c r="H25" s="101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I25" s="101">
         <f t="shared" ref="I25" si="9">I24*200</f>
@@ -2491,14 +2515,202 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <f>(156+98)/2</f>
-        <v>127</v>
+        <f>20*10/4.45</f>
+        <v>44.943820224719097</v>
       </c>
     </row>
     <row r="28" spans="1:15">
+      <c r="A28">
+        <f>80*25/4.45</f>
+        <v>449.43820224719099</v>
+      </c>
       <c r="C28">
         <f>(2.7+452)/2</f>
         <v>227.35</v>
+      </c>
+      <c r="D28">
+        <f>152/4.45</f>
+        <v>34.157303370786515</v>
+      </c>
+      <c r="E28">
+        <f>D28*4.45</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <f>(0.31+1.2)/2</f>
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="F34">
+        <f>630-415</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="F35">
+        <f>E36-E37</f>
+        <v>185167.46411483258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>612500</v>
+      </c>
+      <c r="B36">
+        <f>A36*B38</f>
+        <v>580263.15789473685</v>
+      </c>
+      <c r="D36">
+        <v>630000</v>
+      </c>
+      <c r="E36">
+        <f>D36*F38</f>
+        <v>542583.73205741635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>337500</v>
+      </c>
+      <c r="B37">
+        <f>A37*B38</f>
+        <v>319736.84210526315</v>
+      </c>
+      <c r="D37">
+        <v>415000</v>
+      </c>
+      <c r="E37">
+        <f>D37*F38</f>
+        <v>357416.26794258377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <f>SUM(A36:A37)</f>
+        <v>950000</v>
+      </c>
+      <c r="B38">
+        <f>900000/A38</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D38">
+        <v>1045000</v>
+      </c>
+      <c r="E38">
+        <v>900000</v>
+      </c>
+      <c r="F38">
+        <f>E38/D38</f>
+        <v>0.86124401913875603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <f>A36/A38</f>
+        <v>0.64473684210526316</v>
+      </c>
+      <c r="E40">
+        <f>415/630</f>
+        <v>0.65873015873015872</v>
+      </c>
+      <c r="H40">
+        <v>475000</v>
+      </c>
+      <c r="I40">
+        <f>H40/H42</f>
+        <v>0.62913907284768211</v>
+      </c>
+      <c r="J40">
+        <f>900000*I40</f>
+        <v>566225.16556291387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <f>A37/A38</f>
+        <v>0.35526315789473684</v>
+      </c>
+      <c r="E41">
+        <f>E40*E36</f>
+        <v>357416.26794258377</v>
+      </c>
+      <c r="H41">
+        <v>280000</v>
+      </c>
+      <c r="I41">
+        <f>H41/H42</f>
+        <v>0.37086092715231789</v>
+      </c>
+      <c r="J41">
+        <f>900000*I41</f>
+        <v>333774.83443708607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="G42" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H40:H41)</f>
+        <v>755000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="D43">
+        <f>630000/D38</f>
+        <v>0.60287081339712922</v>
+      </c>
+      <c r="E43">
+        <f>E38*D43</f>
+        <v>542583.73205741635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="D44">
+        <f>D37/D38</f>
+        <v>0.39712918660287083</v>
+      </c>
+      <c r="E44">
+        <f>E38*D44</f>
+        <v>357416.26794258377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>580263.15789473685</v>
+      </c>
+      <c r="B46">
+        <v>542583.73205741635</v>
+      </c>
+      <c r="C46">
+        <f>AVERAGE(A46:B46)</f>
+        <v>561423.4449760766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>319736.84210526315</v>
+      </c>
+      <c r="B47">
+        <v>357416.26794258377</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE(A47:B47)</f>
+        <v>338576.55502392346</v>
       </c>
     </row>
   </sheetData>
@@ -2513,6 +2725,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED916CC-ACC0-E14C-9305-F382ED614E41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1A67B6-A1A1-6349-BAEA-8C84F7A25D0A}">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -2527,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1">
         <v>2008</v>
@@ -2559,7 +2783,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -2588,7 +2812,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2617,7 +2841,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>77</v>
@@ -2646,7 +2870,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -2675,7 +2899,7 @@
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -2704,7 +2928,7 @@
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1">
       <c r="A7" s="63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="64">
